--- a/network/distance_above_39_meters.xlsx
+++ b/network/distance_above_39_meters.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>도장3공장_IO</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>도장3_IO</t>
+          <t>도장3공장_IO</t>
         </is>
       </c>
       <c r="B2" t="n">
